--- a/data/DSUBICI/RIVADAVIA.xlsx
+++ b/data/DSUBICI/RIVADAVIA.xlsx
@@ -30865,7 +30865,7 @@
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr">
         <is>
-          <t>#ffffff</t>
+          <t>#00ffff</t>
         </is>
       </c>
     </row>
